--- a/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Secondary.xlsx
+++ b/Util/openl-maven-plugin/it/openl-gen-spreadsheetresults-beans/src/main/openl/rules/Secondary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\target\its\openl-gen-spreadsheetresults-beans\src\main\openl\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\it\openl-gen-spreadsheetresults-beans\src\main\openl\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF13DDE-7DF6-4C14-B690-56B3913C4ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2460427F-98E1-4CC6-9F6F-AB510C286263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="3038" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2948" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -267,54 +267,6 @@
     <t>= spr1(new Double[]{})</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["step2"], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["step8"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>=  instanceOf(((Object[][])$Step2["step6"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["step14"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["step15"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step13"], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["step9"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>=  instanceOf(((Object[][])$Step2["step10"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["step11"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Map)$Step2["step16"]).keySet().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Map)$Step2["step16"]).values().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((List)$Step2["step17"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["step18"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["step19"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step20"], Map.class)</t>
-  </si>
-  <si>
     <t>Properties</t>
   </si>
   <si>
@@ -340,6 +292,54 @@
   </si>
   <si>
     <t>lob</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["Step2"], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["Step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["Step8"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>=  instanceOf(((Object[][])$Step2["Step6"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["Step14"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["Step15"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["Step13"], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["Step9"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>=  instanceOf(((Object[][])$Step2["Step10"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["Step11"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Map)$Step2["Step16"]).keySet().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Map)$Step2["Step16"]).values().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((List)$Step2["Step17"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["Step18"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["Step19"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["Step20"], Map.class)</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <dimension ref="A2:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:S38"/>
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1113,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
@@ -1121,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
@@ -1129,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
@@ -1137,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
@@ -1145,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
@@ -1153,7 +1153,7 @@
         <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
@@ -1161,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
@@ -1169,7 +1169,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
@@ -1177,7 +1177,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
@@ -1185,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
@@ -1193,7 +1193,7 @@
         <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
@@ -1201,7 +1201,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
@@ -1209,7 +1209,7 @@
         <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
@@ -1217,7 +1217,7 @@
         <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
@@ -1225,7 +1225,7 @@
         <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
@@ -1233,7 +1233,7 @@
         <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1948,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1957,10 +1957,10 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -1968,10 +1968,10 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1979,7 +1979,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C35" s="11">
         <v>2</v>
@@ -2004,7 +2004,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2013,10 +2013,10 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -2024,10 +2024,10 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
       <c r="B40" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
